--- a/CIS_Controls_Assessment.xlsx
+++ b/CIS_Controls_Assessment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1ae195c367f5c09/Desktop/Simulated Compliance Program for Healthcare Clinic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1ae195c367f5c09/Security assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B00D3B05-75F8-4BFC-8E76-D2402A76326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B00D3B05-75F8-4BFC-8E76-D2402A76326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE44CEC4-6932-4DB2-BDB7-0C47A9D74C6B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D146D8E8-CE2D-4F03-B2E6-49D74B9420A0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="440">
   <si>
     <t>CIS Control</t>
   </si>
@@ -1518,6 +1518,51 @@
   </si>
   <si>
     <t>Develop a simple data management policy that includes sensitivity levels, ownership roles, retention limits, and disposal methods; review annually</t>
+  </si>
+  <si>
+    <t>No formal record of where sensitive data is stored, processed or transmitted; no annual review process</t>
+  </si>
+  <si>
+    <t>Create a basic data inventory starting with ePHI: document storage systems, data types, and responsible staff; review annually</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>EMR and billing tools likely have RBAC, but local file shares and M365 documents may not enforce least privelige or ACLs</t>
+  </si>
+  <si>
+    <t>Audit file server and M365 folders; apply ACLs based on role; restrict access to sensitive docs; review permissions quarterly</t>
+  </si>
+  <si>
+    <t>No defined retention timelines for ePHI, financial, or admin data; no disposal policy or enforcement mechanism</t>
+  </si>
+  <si>
+    <t>Develop a written retention policy by data type (e.g. ePHI, HR, billing); align with HIPAA and state laws; train staff and enforce secure disposal methods</t>
+  </si>
+  <si>
+    <t>No evidence of secure deletion or physical media destruction; no written procedures or tracking for device decommissioning</t>
+  </si>
+  <si>
+    <t>Establish a data disposal policy covering paper, hardware, and cloud data; use secure deletion tools; train staff; document all disposals with a chain of custody</t>
+  </si>
+  <si>
+    <t>Clinicl workstations likely lack full-disk encryption (e.g. Bitlocker); risk to ePHI if devices are lost/stolen</t>
+  </si>
+  <si>
+    <t>Require Bitlocker/FileVault on all devices handling ePHI; document and enforce encryption policies; verify with periodic audits</t>
+  </si>
+  <si>
+    <t>No evidence of documented or standardized secure configurations for devices or software; ad hoc IT setup likely</t>
+  </si>
+  <si>
+    <t>Develop and document secure baselines for clinic systems using CIS Benchmarks or vendor guides; apply configurations consistently; review yearly or after major changes</t>
+  </si>
+  <si>
+    <t>Clinic uses basic network infrastructure (firewall, router, Wi-Fi), but likely lacks hardened configurations, documentation, or review process</t>
+  </si>
+  <si>
+    <t>Audit network device configurations; update with secure settings (disable unused ports, change defaults, enable logging); document and review annually</t>
   </si>
 </sst>
 </file>
@@ -1863,9 +1908,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1929,12 +1971,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF519FD7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF519FD7"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFF99D1C"/>
@@ -2003,16 +2062,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF519FD7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF519FD7"/>
+        <color rgb="FFF99D1C"/>
       </font>
     </dxf>
     <dxf>
@@ -2027,11 +2077,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF875295"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF99D1C"/>
       </font>
     </dxf>
     <dxf>
@@ -2673,25 +2718,25 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" ht="29.25" x14ac:dyDescent="0.25">
@@ -2826,9 +2871,9 @@
   </sheetPr>
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2846,83 +2891,83 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2937,36 +2982,36 @@
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="37" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>1.2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2981,36 +3026,36 @@
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>1.3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3019,30 +3064,30 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="I5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>1.4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3051,30 +3096,30 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="I6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>1.5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3083,50 +3128,50 @@
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3141,42 +3186,42 @@
       <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="38" t="s">
+      <c r="I9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>334</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -3185,36 +3230,36 @@
       <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3229,36 +3274,36 @@
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>2.4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3267,30 +3312,30 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="I12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3299,83 +3344,83 @@
       <c r="F13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="I13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="I14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>2.7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="I15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="3"/>
@@ -3384,29 +3429,29 @@
       <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>3</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>3.1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3421,36 +3466,36 @@
       <c r="H17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="38" t="s">
+      <c r="I17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="37" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+    <row r="18" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>3</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>3.2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -3465,26 +3510,36 @@
       <c r="H18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-    </row>
-    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="I18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>3</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>3.3</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3499,26 +3554,36 @@
       <c r="H19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="I19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>3.4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -3533,26 +3598,36 @@
       <c r="H20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-    </row>
-    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="I20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
         <v>3</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>3.5</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3567,32 +3642,42 @@
       <c r="H21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="I21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
         <v>3</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>3.6</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>401</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3601,58 +3686,68 @@
       <c r="H22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="I22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>3.7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>337</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="I23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>3.8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3661,30 +3756,30 @@
       <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="I24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>3</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>3.9</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3697,122 +3792,122 @@
       <c r="H25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="I25" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>3.1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="I26" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>3</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>3.11</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="I27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>3.12</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="I28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>3</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>3.13</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3823,26 +3918,26 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="I29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>3.14</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3851,19 +3946,19 @@
       <c r="F30" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
     </row>
     <row r="31" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="3"/>
@@ -3872,35 +3967,35 @@
       <c r="E31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-    </row>
-    <row r="32" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
         <v>4</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>4.0999999999999996</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>341</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -3909,26 +4004,36 @@
       <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-    </row>
-    <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
+      <c r="I32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
         <v>4</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>4.2</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3943,26 +4048,36 @@
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="I33" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
+      <c r="A34" s="23">
         <v>4</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>4.3</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3977,26 +4092,26 @@
       <c r="H34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="I34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+      <c r="A35" s="23">
         <v>4</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -4011,26 +4126,26 @@
       <c r="H35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
+      <c r="I35" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="23">
         <v>4</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>4.5</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -4045,32 +4160,32 @@
       <c r="H36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="I36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+      <c r="A37" s="23">
         <v>4</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>342</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -4079,32 +4194,32 @@
       <c r="H37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+      <c r="I37" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+      <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>4.7</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="28" t="s">
         <v>343</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -4113,206 +4228,206 @@
       <c r="H38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
+      <c r="I38" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
     </row>
     <row r="39" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>4.8</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
+      <c r="I39" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+      <c r="A40" s="23">
         <v>4</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="23">
         <v>4.9000000000000004</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="28" t="s">
         <v>345</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
+      <c r="I40" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
     </row>
     <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>4.0999999999999996</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
+      <c r="I41" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
     </row>
     <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
+      <c r="A42" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="23">
         <v>4.1100000000000003</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="28" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+      <c r="I42" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
     </row>
     <row r="43" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="A43" s="23">
         <v>4</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>4.12</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
+      <c r="A45" s="23">
         <v>5</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4327,26 +4442,26 @@
       <c r="H45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
+      <c r="I45" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
     </row>
     <row r="46" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
+      <c r="A46" s="23">
         <v>5</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="23">
         <v>5.2</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4361,26 +4476,26 @@
       <c r="H46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
+      <c r="I46" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
+      <c r="A47" s="23">
         <v>5</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>5.3</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4395,32 +4510,32 @@
       <c r="H47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
+      <c r="I47" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
     </row>
     <row r="48" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
+      <c r="A48" s="23">
         <v>5</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>5.4</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="29" t="s">
         <v>346</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -4429,58 +4544,58 @@
       <c r="H48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
+      <c r="I48" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
     </row>
     <row r="49" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>5.5</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="G49" s="24"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
+      <c r="I49" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
+      <c r="A50" s="23">
         <v>5</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>5.6</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4493,17 +4608,17 @@
       <c r="H50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="I50" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
     </row>
     <row r="51" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="3"/>
@@ -4512,29 +4627,29 @@
       <c r="E51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
     </row>
     <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
+      <c r="A52" s="23">
         <v>6</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="23">
         <v>6.1</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -4549,26 +4664,26 @@
       <c r="H52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
+      <c r="I52" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
     </row>
     <row r="53" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="24">
+      <c r="A53" s="23">
         <v>6</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>6.2</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -4583,26 +4698,26 @@
       <c r="H53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
+      <c r="I53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
     </row>
     <row r="54" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="24">
+      <c r="A54" s="23">
         <v>6</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="23">
         <v>6.3</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -4617,26 +4732,26 @@
       <c r="H54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
+      <c r="I54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
     </row>
     <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="24">
+      <c r="A55" s="23">
         <v>6</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>6.4</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4651,26 +4766,26 @@
       <c r="H55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="I55" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
     </row>
     <row r="56" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="24">
+      <c r="A56" s="23">
         <v>6</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>6.5</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -4685,26 +4800,26 @@
       <c r="H56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
+      <c r="I56" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
     </row>
     <row r="57" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="24">
+      <c r="A57" s="23">
         <v>6</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>6.6</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -4713,30 +4828,30 @@
       <c r="F57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="24"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
+      <c r="I57" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="24">
+      <c r="A58" s="23">
         <v>6</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>6.7</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -4749,47 +4864,47 @@
       <c r="H58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
+      <c r="I58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
     </row>
     <row r="59" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="24">
+      <c r="A59" s="23">
         <v>6</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>6.8</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>348</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
+      <c r="I59" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
     </row>
     <row r="60" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B60" s="3"/>
@@ -4798,29 +4913,29 @@
       <c r="E60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
     </row>
     <row r="61" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="24">
+      <c r="A61" s="23">
         <v>7</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>7.1</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4835,26 +4950,26 @@
       <c r="H61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
+      <c r="I61" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
     </row>
     <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="24">
+      <c r="A62" s="23">
         <v>7</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>7.2</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4869,26 +4984,26 @@
       <c r="H62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
+      <c r="I62" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
     </row>
     <row r="63" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="24">
+      <c r="A63" s="23">
         <v>7</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="23">
         <v>7.3</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4903,26 +5018,26 @@
       <c r="H63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I63" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
+      <c r="I63" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
     </row>
     <row r="64" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="24">
+      <c r="A64" s="23">
         <v>7</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="23">
         <v>7.4</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4937,26 +5052,26 @@
       <c r="H64" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
+      <c r="I64" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
     </row>
     <row r="65" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="24">
+      <c r="A65" s="23">
         <v>7</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>7.5</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -4969,26 +5084,26 @@
       <c r="H65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
+      <c r="I65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
     </row>
     <row r="66" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="24">
+      <c r="A66" s="23">
         <v>7</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="23">
         <v>7.6</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -5001,26 +5116,26 @@
       <c r="H66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
+      <c r="I66" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
     </row>
     <row r="67" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="24">
+      <c r="A67" s="23">
         <v>7</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>7.7</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -5033,17 +5148,17 @@
       <c r="H67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
+      <c r="I67" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B68" s="3"/>
@@ -5052,29 +5167,29 @@
       <c r="E68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
     </row>
     <row r="69" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="24">
+      <c r="A69" s="23">
         <v>8</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>8.1</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5089,26 +5204,26 @@
       <c r="H69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
+      <c r="I69" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
     </row>
     <row r="70" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>8</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="23">
         <v>8.1999999999999993</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -5123,26 +5238,26 @@
       <c r="H70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
+      <c r="I70" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="24">
+      <c r="A71" s="23">
         <v>8</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>8.3000000000000007</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5157,26 +5272,26 @@
       <c r="H71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
+      <c r="I71" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
     </row>
     <row r="72" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>8.4</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -5185,30 +5300,30 @@
       <c r="F72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G72" s="24"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
+      <c r="I72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
     </row>
     <row r="73" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>8</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>8.5</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -5221,26 +5336,26 @@
       <c r="H73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
+      <c r="I73" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="23">
         <v>8.6</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -5249,30 +5364,30 @@
       <c r="F74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="24"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
+      <c r="I74" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="23">
         <v>8.6999999999999993</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -5281,94 +5396,94 @@
       <c r="F75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="24"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
+      <c r="I75" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
     </row>
     <row r="76" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="23">
         <v>8.8000000000000007</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="G76" s="24"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
+      <c r="I76" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>8.9</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G77" s="24"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I77" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
+      <c r="I77" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="30">
         <v>8.1</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5377,30 +5492,30 @@
       <c r="F78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G78" s="24"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
+      <c r="I78" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
     </row>
     <row r="79" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="23">
         <v>8.11</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5409,51 +5524,51 @@
       <c r="F79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G79" s="24"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
+      <c r="I79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
     </row>
     <row r="80" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>8</v>
       </c>
-      <c r="B80" s="24">
+      <c r="B80" s="23">
         <v>8.1199999999999992</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="28" t="s">
         <v>350</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
+      <c r="I80" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
     </row>
     <row r="81" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="3"/>
@@ -5462,29 +5577,29 @@
       <c r="E81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
     </row>
     <row r="82" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>9</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B82" s="23">
         <v>9.1</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -5499,26 +5614,26 @@
       <c r="H82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
+      <c r="I82" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>9</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="23">
         <v>9.1999999999999993</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -5533,26 +5648,26 @@
       <c r="H83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
+      <c r="I83" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
     </row>
     <row r="84" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>9</v>
       </c>
-      <c r="B84" s="24">
+      <c r="B84" s="23">
         <v>9.3000000000000007</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -5565,26 +5680,26 @@
       <c r="H84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I84" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
+      <c r="I84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
     </row>
     <row r="85" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="23">
         <v>9.4</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5593,30 +5708,30 @@
       <c r="F85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G85" s="24"/>
+      <c r="G85" s="23"/>
       <c r="H85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
+      <c r="I85" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
     </row>
     <row r="86" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B86" s="23">
         <v>9.5</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -5625,30 +5740,30 @@
       <c r="F86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G86" s="24"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
+      <c r="I86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="23">
         <v>9.6</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -5657,30 +5772,30 @@
       <c r="F87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G87" s="24"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
+      <c r="I87" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
     </row>
     <row r="88" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="23">
         <v>9.6999999999999993</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -5689,19 +5804,19 @@
       <c r="F88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
     </row>
     <row r="89" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>177</v>
       </c>
       <c r="B89" s="3"/>
@@ -5710,29 +5825,29 @@
       <c r="E89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
     </row>
     <row r="90" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>10</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="23">
         <v>10.1</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -5747,26 +5862,26 @@
       <c r="H90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
+      <c r="I90" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
     </row>
     <row r="91" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="24">
+      <c r="A91" s="23">
         <v>10</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="23">
         <v>10.199999999999999</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -5781,26 +5896,26 @@
       <c r="H91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I91" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
+      <c r="I91" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
     </row>
     <row r="92" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="24">
+      <c r="A92" s="23">
         <v>10</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>10.3</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5815,26 +5930,26 @@
       <c r="H92" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I92" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
+      <c r="I92" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
     </row>
     <row r="93" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="24">
+      <c r="A93" s="23">
         <v>10</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>10.4</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -5847,58 +5962,58 @@
       <c r="H93" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I93" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
+      <c r="I93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
     </row>
     <row r="94" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>10</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>10.5</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F94" s="28" t="s">
         <v>189</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
+      <c r="I94" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
     </row>
     <row r="95" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>10.6</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -5907,30 +6022,30 @@
       <c r="F95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="24"/>
+      <c r="G95" s="23"/>
       <c r="H95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
+      <c r="I95" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
     </row>
     <row r="96" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="24">
+      <c r="B96" s="23">
         <v>10.7</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -5939,21 +6054,21 @@
       <c r="F96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G96" s="24"/>
+      <c r="G96" s="23"/>
       <c r="H96" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I96" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
+      <c r="I96" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
     </row>
     <row r="97" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="3"/>
@@ -5962,29 +6077,29 @@
       <c r="E97" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
     </row>
     <row r="98" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>11</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B98" s="23">
         <v>11.1</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -5999,26 +6114,26 @@
       <c r="H98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="38"/>
+      <c r="I98" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
     </row>
     <row r="99" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="24">
+      <c r="A99" s="23">
         <v>11</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B99" s="23">
         <v>11.2</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -6033,26 +6148,26 @@
       <c r="H99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
+      <c r="I99" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
     </row>
     <row r="100" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="24">
+      <c r="A100" s="23">
         <v>11</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B100" s="23">
         <v>11.3</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -6067,32 +6182,32 @@
       <c r="H100" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
+      <c r="I100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
     </row>
     <row r="101" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="24">
+      <c r="A101" s="23">
         <v>11</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B101" s="23">
         <v>11.4</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -6101,26 +6216,26 @@
       <c r="H101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
+      <c r="I101" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="24">
+      <c r="A102" s="23">
         <v>11</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B102" s="23">
         <v>11.5</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -6133,17 +6248,17 @@
       <c r="H102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="38"/>
+      <c r="I102" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
     </row>
     <row r="103" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="22">
+      <c r="A103" s="21">
         <v>12</v>
       </c>
       <c r="B103" s="3"/>
@@ -6152,29 +6267,29 @@
       <c r="E103" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="26" t="s">
         <v>210</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="38"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
     </row>
     <row r="104" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="24">
-        <v>12</v>
-      </c>
-      <c r="B104" s="24">
+      <c r="A104" s="23">
+        <v>12</v>
+      </c>
+      <c r="B104" s="23">
         <v>12.1</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -6189,26 +6304,26 @@
       <c r="H104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
+      <c r="I104" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
     </row>
     <row r="105" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="24">
-        <v>12</v>
-      </c>
-      <c r="B105" s="24">
+      <c r="A105" s="23">
+        <v>12</v>
+      </c>
+      <c r="B105" s="23">
         <v>12.2</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -6221,26 +6336,26 @@
       <c r="H105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I105" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
+      <c r="I105" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
     </row>
     <row r="106" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="24">
-        <v>12</v>
-      </c>
-      <c r="B106" s="24">
+      <c r="A106" s="23">
+        <v>12</v>
+      </c>
+      <c r="B106" s="23">
         <v>12.3</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -6253,26 +6368,26 @@
       <c r="H106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I106" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
+      <c r="I106" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
     </row>
     <row r="107" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="24">
-        <v>12</v>
-      </c>
-      <c r="B107" s="24">
+      <c r="A107" s="23">
+        <v>12</v>
+      </c>
+      <c r="B107" s="23">
         <v>12.4</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -6285,26 +6400,26 @@
       <c r="H107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I107" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
+      <c r="I107" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
     </row>
     <row r="108" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="24">
-        <v>12</v>
-      </c>
-      <c r="B108" s="24">
+      <c r="A108" s="23">
+        <v>12</v>
+      </c>
+      <c r="B108" s="23">
         <v>12.5</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -6317,111 +6432,111 @@
       <c r="H108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38"/>
+      <c r="I108" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
     </row>
     <row r="109" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="24">
-        <v>12</v>
-      </c>
-      <c r="B109" s="24">
+      <c r="A109" s="23">
+        <v>12</v>
+      </c>
+      <c r="B109" s="23">
         <v>12.6</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="28" t="s">
         <v>351</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
+      <c r="I109" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
     </row>
     <row r="110" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="24">
-        <v>12</v>
-      </c>
-      <c r="B110" s="24">
+      <c r="A110" s="23">
+        <v>12</v>
+      </c>
+      <c r="B110" s="23">
         <v>12.7</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="29" t="s">
+      <c r="D110" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="28" t="s">
         <v>373</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I110" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
+      <c r="I110" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
     </row>
     <row r="111" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B111" s="24">
+      <c r="B111" s="23">
         <v>12.8</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="29" t="s">
+      <c r="D111" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="28" t="s">
         <v>352</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
     </row>
     <row r="112" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B112" s="3"/>
@@ -6430,61 +6545,61 @@
       <c r="E112" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
     </row>
     <row r="113" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="24">
+      <c r="B113" s="23">
         <v>13.1</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="G113" s="24"/>
+      <c r="G113" s="23"/>
       <c r="H113" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I113" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
+      <c r="I113" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
     </row>
     <row r="114" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="24">
+      <c r="B114" s="23">
         <v>13.2</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -6493,62 +6608,62 @@
       <c r="F114" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G114" s="24"/>
+      <c r="G114" s="23"/>
       <c r="H114" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I114" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
+      <c r="I114" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
     </row>
     <row r="115" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B115" s="23">
         <v>13.3</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G115" s="24"/>
+      <c r="G115" s="23"/>
       <c r="H115" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I115" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
+      <c r="I115" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
     </row>
     <row r="116" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="24">
+      <c r="B116" s="23">
         <v>13.4</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -6557,62 +6672,62 @@
       <c r="F116" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G116" s="24"/>
+      <c r="G116" s="23"/>
       <c r="H116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I116" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
+      <c r="I116" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="37"/>
     </row>
     <row r="117" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B117" s="24">
+      <c r="B117" s="23">
         <v>13.5</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="F117" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="G117" s="24"/>
+      <c r="G117" s="23"/>
       <c r="H117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I117" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
+      <c r="I117" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="24">
+      <c r="B118" s="23">
         <v>13.6</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -6621,60 +6736,60 @@
       <c r="F118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G118" s="24"/>
+      <c r="G118" s="23"/>
       <c r="H118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I118" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
+      <c r="I118" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
     </row>
     <row r="119" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="24">
+      <c r="B119" s="23">
         <v>13.7</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="37"/>
     </row>
     <row r="120" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B120" s="24">
+      <c r="B120" s="23">
         <v>13.8</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -6683,28 +6798,28 @@
       <c r="F120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
-      <c r="N120" s="38"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
     </row>
     <row r="121" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="24">
+      <c r="B121" s="23">
         <v>13.9</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -6713,28 +6828,28 @@
       <c r="F121" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="34">
+      <c r="B122" s="33">
         <v>13.1</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -6743,28 +6858,28 @@
       <c r="F122" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
-      <c r="L122" s="38"/>
-      <c r="M122" s="38"/>
-      <c r="N122" s="38"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="37"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B123" s="24">
+      <c r="B123" s="23">
         <v>13.11</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -6773,19 +6888,19 @@
       <c r="F123" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
-      <c r="L123" s="38"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="37"/>
     </row>
     <row r="124" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="22">
+      <c r="A124" s="21">
         <v>14</v>
       </c>
       <c r="B124" s="3"/>
@@ -6794,29 +6909,29 @@
       <c r="E124" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="26" t="s">
         <v>247</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="37"/>
     </row>
     <row r="125" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="24">
+      <c r="A125" s="23">
         <v>14</v>
       </c>
-      <c r="B125" s="24">
+      <c r="B125" s="23">
         <v>14.1</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -6831,26 +6946,26 @@
       <c r="H125" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I125" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
-      <c r="N125" s="38"/>
+      <c r="I125" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="24">
+      <c r="A126" s="23">
         <v>14</v>
       </c>
-      <c r="B126" s="24">
+      <c r="B126" s="23">
         <v>14.2</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -6865,26 +6980,26 @@
       <c r="H126" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I126" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
-      <c r="L126" s="38"/>
-      <c r="M126" s="38"/>
-      <c r="N126" s="38"/>
+      <c r="I126" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="24">
+      <c r="A127" s="23">
         <v>14</v>
       </c>
-      <c r="B127" s="24">
+      <c r="B127" s="23">
         <v>14.3</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -6899,26 +7014,26 @@
       <c r="H127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I127" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="38"/>
-      <c r="M127" s="38"/>
-      <c r="N127" s="38"/>
+      <c r="I127" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A128" s="24">
+      <c r="A128" s="23">
         <v>14</v>
       </c>
-      <c r="B128" s="24">
+      <c r="B128" s="23">
         <v>14.4</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -6933,32 +7048,32 @@
       <c r="H128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I128" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
-      <c r="L128" s="38"/>
-      <c r="M128" s="38"/>
-      <c r="N128" s="38"/>
+      <c r="I128" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="24">
+      <c r="A129" s="23">
         <v>14</v>
       </c>
-      <c r="B129" s="24">
+      <c r="B129" s="23">
         <v>14.5</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="28" t="s">
         <v>357</v>
       </c>
       <c r="G129" s="4" t="s">
@@ -6967,26 +7082,26 @@
       <c r="H129" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I129" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
-      <c r="L129" s="38"/>
-      <c r="M129" s="38"/>
-      <c r="N129" s="38"/>
+      <c r="I129" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="37"/>
     </row>
     <row r="130" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="24">
+      <c r="A130" s="23">
         <v>14</v>
       </c>
-      <c r="B130" s="24">
+      <c r="B130" s="23">
         <v>14.6</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -7001,29 +7116,29 @@
       <c r="H130" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I130" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J130" s="38"/>
-      <c r="K130" s="38"/>
-      <c r="L130" s="38"/>
-      <c r="M130" s="38"/>
-      <c r="N130" s="38"/>
+      <c r="I130" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="24">
+      <c r="A131" s="23">
         <v>14</v>
       </c>
-      <c r="B131" s="24">
+      <c r="B131" s="23">
         <v>14.7</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D131" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E131" s="29" t="s">
+      <c r="D131" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="28" t="s">
         <v>358</v>
       </c>
       <c r="F131" s="2" t="s">
@@ -7035,26 +7150,26 @@
       <c r="H131" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I131" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38"/>
-      <c r="M131" s="38"/>
-      <c r="N131" s="38"/>
+      <c r="I131" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" s="37"/>
+      <c r="K131" s="37"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="37"/>
     </row>
     <row r="132" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="24">
+      <c r="A132" s="23">
         <v>14</v>
       </c>
-      <c r="B132" s="24">
+      <c r="B132" s="23">
         <v>14.8</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -7069,49 +7184,49 @@
       <c r="H132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I132" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
+      <c r="I132" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="37"/>
     </row>
     <row r="133" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="24">
+      <c r="A133" s="23">
         <v>14</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B133" s="23">
         <v>14.9</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F133" s="28" t="s">
         <v>375</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I133" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
+      <c r="I133" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37"/>
     </row>
     <row r="134" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="22">
+      <c r="A134" s="21">
         <v>15</v>
       </c>
       <c r="B134" s="3"/>
@@ -7120,35 +7235,35 @@
       <c r="E134" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F134" s="27" t="s">
+      <c r="F134" s="26" t="s">
         <v>265</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
     </row>
     <row r="135" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="24">
+      <c r="A135" s="23">
         <v>15</v>
       </c>
-      <c r="B135" s="24">
+      <c r="B135" s="23">
         <v>15.1</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="27" t="s">
         <v>359</v>
       </c>
       <c r="G135" s="4" t="s">
@@ -7157,26 +7272,26 @@
       <c r="H135" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I135" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
+      <c r="I135" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="37"/>
+      <c r="K135" s="37"/>
+      <c r="L135" s="37"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="37"/>
     </row>
     <row r="136" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="24">
+      <c r="A136" s="23">
         <v>15</v>
       </c>
-      <c r="B136" s="24">
+      <c r="B136" s="23">
         <v>15.2</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -7189,26 +7304,26 @@
       <c r="H136" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I136" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="38"/>
-      <c r="N136" s="38"/>
+      <c r="I136" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" s="37"/>
+      <c r="K136" s="37"/>
+      <c r="L136" s="37"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="37"/>
     </row>
     <row r="137" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="24">
+      <c r="A137" s="23">
         <v>15</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B137" s="23">
         <v>15.3</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -7221,139 +7336,139 @@
       <c r="H137" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I137" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
+      <c r="I137" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
     </row>
     <row r="138" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" s="24">
+      <c r="A138" s="23">
         <v>15</v>
       </c>
-      <c r="B138" s="24">
+      <c r="B138" s="23">
         <v>15.4</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F138" s="29" t="s">
+      <c r="F138" s="28" t="s">
         <v>360</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I138" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="38"/>
-      <c r="N138" s="38"/>
+      <c r="I138" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" s="37"/>
+      <c r="K138" s="37"/>
+      <c r="L138" s="37"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="37"/>
     </row>
     <row r="139" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A139" s="24">
+      <c r="A139" s="23">
         <v>15</v>
       </c>
-      <c r="B139" s="24">
+      <c r="B139" s="23">
         <v>15.5</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F139" s="28" t="s">
+      <c r="F139" s="27" t="s">
         <v>361</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
+      <c r="I139" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
+      <c r="L139" s="37"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="37"/>
     </row>
     <row r="140" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="24">
+      <c r="A140" s="23">
         <v>15</v>
       </c>
-      <c r="B140" s="24">
+      <c r="B140" s="23">
         <v>15.6</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F140" s="28" t="s">
+      <c r="F140" s="27" t="s">
         <v>362</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
-      <c r="M140" s="38"/>
-      <c r="N140" s="38"/>
+      <c r="I140" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
     </row>
     <row r="141" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="24">
+      <c r="A141" s="23">
         <v>15</v>
       </c>
-      <c r="B141" s="24">
+      <c r="B141" s="23">
         <v>15.7</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="F141" s="27" t="s">
         <v>363</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="38"/>
-      <c r="N141" s="38"/>
+      <c r="I141" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="37"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="37"/>
     </row>
     <row r="142" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="21" t="s">
         <v>275</v>
       </c>
       <c r="B142" s="3"/>
@@ -7362,157 +7477,157 @@
       <c r="E142" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F142" s="27" t="s">
+      <c r="F142" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="G142" s="22"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
-      <c r="L142" s="38"/>
-      <c r="M142" s="38"/>
-      <c r="N142" s="38"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="37"/>
     </row>
     <row r="143" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" s="24">
+      <c r="A143" s="23">
         <v>16</v>
       </c>
-      <c r="B143" s="24">
+      <c r="B143" s="23">
         <v>16.100000000000001</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F143" s="30" t="s">
+      <c r="F143" s="29" t="s">
         <v>364</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I143" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
-      <c r="M143" s="38"/>
-      <c r="N143" s="38"/>
+      <c r="I143" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
+      <c r="L143" s="37"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="37"/>
     </row>
     <row r="144" spans="1:14" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="24">
+      <c r="A144" s="23">
         <v>16</v>
       </c>
-      <c r="B144" s="24">
+      <c r="B144" s="23">
         <v>16.2</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="F144" s="27" t="s">
         <v>374</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I144" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
-      <c r="M144" s="38"/>
-      <c r="N144" s="38"/>
+      <c r="I144" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
     </row>
     <row r="145" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="24">
+      <c r="A145" s="23">
         <v>16</v>
       </c>
-      <c r="B145" s="24">
+      <c r="B145" s="23">
         <v>16.3</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="F145" s="28" t="s">
         <v>365</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
-      <c r="M145" s="38"/>
-      <c r="N145" s="38"/>
+      <c r="I145" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="37"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="37"/>
     </row>
     <row r="146" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A146" s="24">
+      <c r="A146" s="23">
         <v>16</v>
       </c>
-      <c r="B146" s="24">
+      <c r="B146" s="23">
         <v>16.399999999999999</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F146" s="30" t="s">
+      <c r="F146" s="29" t="s">
         <v>366</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I146" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
-      <c r="M146" s="38"/>
-      <c r="N146" s="38"/>
+      <c r="I146" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
     </row>
     <row r="147" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="24">
+      <c r="A147" s="23">
         <v>16</v>
       </c>
-      <c r="B147" s="24">
+      <c r="B147" s="23">
         <v>16.5</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -7525,26 +7640,26 @@
       <c r="H147" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I147" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
-      <c r="L147" s="38"/>
-      <c r="M147" s="38"/>
-      <c r="N147" s="38"/>
+      <c r="I147" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" s="37"/>
+      <c r="K147" s="37"/>
+      <c r="L147" s="37"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="37"/>
     </row>
     <row r="148" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A148" s="24">
+      <c r="A148" s="23">
         <v>16</v>
       </c>
-      <c r="B148" s="24">
+      <c r="B148" s="23">
         <v>16.600000000000001</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -7557,26 +7672,26 @@
       <c r="H148" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I148" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J148" s="38"/>
-      <c r="K148" s="38"/>
-      <c r="L148" s="38"/>
-      <c r="M148" s="38"/>
-      <c r="N148" s="38"/>
+      <c r="I148" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
+      <c r="L148" s="37"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="37"/>
     </row>
     <row r="149" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="24">
+      <c r="A149" s="23">
         <v>16</v>
       </c>
-      <c r="B149" s="24">
+      <c r="B149" s="23">
         <v>16.7</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -7589,26 +7704,26 @@
       <c r="H149" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I149" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J149" s="38"/>
-      <c r="K149" s="38"/>
-      <c r="L149" s="38"/>
-      <c r="M149" s="38"/>
-      <c r="N149" s="38"/>
+      <c r="I149" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="37"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="37"/>
     </row>
     <row r="150" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="24">
+      <c r="A150" s="23">
         <v>16</v>
       </c>
-      <c r="B150" s="24">
+      <c r="B150" s="23">
         <v>16.8</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -7621,26 +7736,26 @@
       <c r="H150" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J150" s="38"/>
-      <c r="K150" s="38"/>
-      <c r="L150" s="38"/>
-      <c r="M150" s="38"/>
-      <c r="N150" s="38"/>
+      <c r="I150" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="37"/>
+      <c r="K150" s="37"/>
+      <c r="L150" s="37"/>
+      <c r="M150" s="37"/>
+      <c r="N150" s="37"/>
     </row>
     <row r="151" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A151" s="24">
+      <c r="A151" s="23">
         <v>16</v>
       </c>
-      <c r="B151" s="24">
+      <c r="B151" s="23">
         <v>16.899999999999999</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -7653,26 +7768,26 @@
       <c r="H151" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I151" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J151" s="38"/>
-      <c r="K151" s="38"/>
-      <c r="L151" s="38"/>
-      <c r="M151" s="38"/>
-      <c r="N151" s="38"/>
+      <c r="I151" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151" s="37"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="37"/>
+      <c r="M151" s="37"/>
+      <c r="N151" s="37"/>
     </row>
     <row r="152" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="24">
+      <c r="A152" s="23">
         <v>16</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="30">
         <v>16.100000000000001</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -7685,26 +7800,26 @@
       <c r="H152" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I152" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J152" s="38"/>
-      <c r="K152" s="38"/>
-      <c r="L152" s="38"/>
-      <c r="M152" s="38"/>
-      <c r="N152" s="38"/>
+      <c r="I152" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152" s="37"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="37"/>
+      <c r="M152" s="37"/>
+      <c r="N152" s="37"/>
     </row>
     <row r="153" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="24">
+      <c r="A153" s="23">
         <v>16</v>
       </c>
-      <c r="B153" s="24">
+      <c r="B153" s="23">
         <v>16.11</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -7717,56 +7832,56 @@
       <c r="H153" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I153" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J153" s="38"/>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
-      <c r="M153" s="38"/>
-      <c r="N153" s="38"/>
+      <c r="I153" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J153" s="37"/>
+      <c r="K153" s="37"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="37"/>
     </row>
     <row r="154" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="24">
+      <c r="A154" s="23">
         <v>16</v>
       </c>
-      <c r="B154" s="24">
+      <c r="B154" s="23">
         <v>16.12</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="F154" s="28" t="s">
         <v>367</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="I154" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" s="38"/>
-      <c r="K154" s="38"/>
-      <c r="L154" s="38"/>
-      <c r="M154" s="38"/>
-      <c r="N154" s="38"/>
+      <c r="I154" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J154" s="37"/>
+      <c r="K154" s="37"/>
+      <c r="L154" s="37"/>
+      <c r="M154" s="37"/>
+      <c r="N154" s="37"/>
     </row>
     <row r="155" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="24">
+      <c r="A155" s="23">
         <v>16</v>
       </c>
-      <c r="B155" s="24">
+      <c r="B155" s="23">
         <v>16.13</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -7777,26 +7892,26 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J155" s="38"/>
-      <c r="K155" s="38"/>
-      <c r="L155" s="38"/>
-      <c r="M155" s="38"/>
-      <c r="N155" s="38"/>
+      <c r="I155" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J155" s="37"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="37"/>
+      <c r="M155" s="37"/>
+      <c r="N155" s="37"/>
     </row>
     <row r="156" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A156" s="24">
+      <c r="A156" s="23">
         <v>16</v>
       </c>
-      <c r="B156" s="24">
+      <c r="B156" s="23">
         <v>16.14</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -7807,17 +7922,17 @@
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J156" s="38"/>
-      <c r="K156" s="38"/>
-      <c r="L156" s="38"/>
-      <c r="M156" s="38"/>
-      <c r="N156" s="38"/>
+      <c r="I156" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J156" s="37"/>
+      <c r="K156" s="37"/>
+      <c r="L156" s="37"/>
+      <c r="M156" s="37"/>
+      <c r="N156" s="37"/>
     </row>
     <row r="157" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="22">
+      <c r="A157" s="21">
         <v>17</v>
       </c>
       <c r="B157" s="3"/>
@@ -7826,29 +7941,29 @@
       <c r="E157" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F157" s="27" t="s">
+      <c r="F157" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="38"/>
-      <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
-      <c r="N157" s="38"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="37"/>
+      <c r="L157" s="37"/>
+      <c r="M157" s="37"/>
+      <c r="N157" s="37"/>
     </row>
     <row r="158" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="24">
+      <c r="A158" s="23">
         <v>17</v>
       </c>
-      <c r="B158" s="24">
+      <c r="B158" s="23">
         <v>17.100000000000001</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -7863,26 +7978,26 @@
       <c r="H158" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I158" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J158" s="38"/>
-      <c r="K158" s="38"/>
-      <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
-      <c r="N158" s="38"/>
+      <c r="I158" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158" s="37"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37"/>
     </row>
     <row r="159" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A159" s="24">
+      <c r="A159" s="23">
         <v>17</v>
       </c>
-      <c r="B159" s="24">
+      <c r="B159" s="23">
         <v>17.2</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -7897,26 +8012,26 @@
       <c r="H159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I159" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J159" s="38"/>
-      <c r="K159" s="38"/>
-      <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
-      <c r="N159" s="38"/>
+      <c r="I159" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" s="37"/>
+      <c r="K159" s="37"/>
+      <c r="L159" s="37"/>
+      <c r="M159" s="37"/>
+      <c r="N159" s="37"/>
     </row>
     <row r="160" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A160" s="24">
+      <c r="A160" s="23">
         <v>17</v>
       </c>
-      <c r="B160" s="24">
+      <c r="B160" s="23">
         <v>17.3</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -7931,26 +8046,26 @@
       <c r="H160" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I160" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J160" s="38"/>
-      <c r="K160" s="38"/>
-      <c r="L160" s="38"/>
-      <c r="M160" s="38"/>
-      <c r="N160" s="38"/>
+      <c r="I160" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J160" s="37"/>
+      <c r="K160" s="37"/>
+      <c r="L160" s="37"/>
+      <c r="M160" s="37"/>
+      <c r="N160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="24">
+      <c r="A161" s="23">
         <v>17</v>
       </c>
-      <c r="B161" s="24">
+      <c r="B161" s="23">
         <v>17.399999999999999</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -7963,58 +8078,58 @@
       <c r="H161" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I161" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
-      <c r="N161" s="38"/>
+      <c r="I161" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" s="37"/>
+      <c r="K161" s="37"/>
+      <c r="L161" s="37"/>
+      <c r="M161" s="37"/>
+      <c r="N161" s="37"/>
     </row>
     <row r="162" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="24">
+      <c r="A162" s="23">
         <v>17</v>
       </c>
-      <c r="B162" s="24">
+      <c r="B162" s="23">
         <v>17.5</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F162" s="29" t="s">
+      <c r="F162" s="28" t="s">
         <v>368</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I162" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J162" s="38"/>
-      <c r="K162" s="38"/>
-      <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
-      <c r="N162" s="38"/>
+      <c r="I162" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162" s="37"/>
+      <c r="K162" s="37"/>
+      <c r="L162" s="37"/>
+      <c r="M162" s="37"/>
+      <c r="N162" s="37"/>
     </row>
     <row r="163" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A163" s="24">
+      <c r="A163" s="23">
         <v>17</v>
       </c>
-      <c r="B163" s="24">
+      <c r="B163" s="23">
         <v>17.600000000000001</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -8027,26 +8142,26 @@
       <c r="H163" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I163" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J163" s="38"/>
-      <c r="K163" s="38"/>
-      <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
-      <c r="N163" s="38"/>
+      <c r="I163" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J163" s="37"/>
+      <c r="K163" s="37"/>
+      <c r="L163" s="37"/>
+      <c r="M163" s="37"/>
+      <c r="N163" s="37"/>
     </row>
     <row r="164" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="24">
+      <c r="A164" s="23">
         <v>17</v>
       </c>
-      <c r="B164" s="24">
+      <c r="B164" s="23">
         <v>17.7</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -8059,26 +8174,26 @@
       <c r="H164" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164" s="38"/>
-      <c r="K164" s="38"/>
-      <c r="L164" s="38"/>
-      <c r="M164" s="38"/>
-      <c r="N164" s="38"/>
+      <c r="I164" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="37"/>
+      <c r="N164" s="37"/>
     </row>
     <row r="165" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="24">
+      <c r="A165" s="23">
         <v>17</v>
       </c>
-      <c r="B165" s="24">
+      <c r="B165" s="23">
         <v>17.8</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -8091,47 +8206,47 @@
       <c r="H165" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I165" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" s="38"/>
-      <c r="K165" s="38"/>
-      <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
-      <c r="N165" s="38"/>
+      <c r="I165" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="37"/>
+      <c r="K165" s="37"/>
+      <c r="L165" s="37"/>
+      <c r="M165" s="37"/>
+      <c r="N165" s="37"/>
     </row>
     <row r="166" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="24">
+      <c r="A166" s="23">
         <v>17</v>
       </c>
-      <c r="B166" s="24">
+      <c r="B166" s="23">
         <v>17.899999999999999</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F166" s="29" t="s">
+      <c r="F166" s="28" t="s">
         <v>369</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166" s="38"/>
-      <c r="K166" s="38"/>
-      <c r="L166" s="38"/>
-      <c r="M166" s="38"/>
-      <c r="N166" s="38"/>
+      <c r="I166" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="37"/>
+      <c r="K166" s="37"/>
+      <c r="L166" s="37"/>
+      <c r="M166" s="37"/>
+      <c r="N166" s="37"/>
     </row>
     <row r="167" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="22" t="s">
+      <c r="A167" s="21" t="s">
         <v>318</v>
       </c>
       <c r="B167" s="3"/>
@@ -8140,29 +8255,29 @@
       <c r="E167" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F167" s="27" t="s">
+      <c r="F167" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="G167" s="22"/>
-      <c r="H167" s="22"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="38"/>
-      <c r="L167" s="38"/>
-      <c r="M167" s="38"/>
-      <c r="N167" s="38"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="34"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="37"/>
+      <c r="N167" s="37"/>
     </row>
     <row r="168" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B168" s="24">
+      <c r="B168" s="23">
         <v>18.100000000000001</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D168" s="25" t="s">
+      <c r="D168" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -8171,30 +8286,30 @@
       <c r="F168" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G168" s="24"/>
+      <c r="G168" s="23"/>
       <c r="H168" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I168" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
-      <c r="M168" s="38"/>
-      <c r="N168" s="38"/>
+      <c r="I168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168" s="37"/>
+      <c r="K168" s="37"/>
+      <c r="L168" s="37"/>
+      <c r="M168" s="37"/>
+      <c r="N168" s="37"/>
     </row>
     <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B169" s="24">
+      <c r="B169" s="23">
         <v>18.2</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D169" s="25" t="s">
+      <c r="D169" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -8203,30 +8318,30 @@
       <c r="F169" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G169" s="24"/>
+      <c r="G169" s="23"/>
       <c r="H169" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I169" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J169" s="38"/>
-      <c r="K169" s="38"/>
-      <c r="L169" s="38"/>
-      <c r="M169" s="38"/>
-      <c r="N169" s="38"/>
+      <c r="I169" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="37"/>
+      <c r="M169" s="37"/>
+      <c r="N169" s="37"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B170" s="24">
+      <c r="B170" s="23">
         <v>18.3</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -8235,30 +8350,30 @@
       <c r="F170" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G170" s="24"/>
+      <c r="G170" s="23"/>
       <c r="H170" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I170" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J170" s="38"/>
-      <c r="K170" s="38"/>
-      <c r="L170" s="38"/>
-      <c r="M170" s="38"/>
-      <c r="N170" s="38"/>
+      <c r="I170" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J170" s="37"/>
+      <c r="K170" s="37"/>
+      <c r="L170" s="37"/>
+      <c r="M170" s="37"/>
+      <c r="N170" s="37"/>
     </row>
     <row r="171" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="24">
+      <c r="A171" s="23">
         <v>18</v>
       </c>
-      <c r="B171" s="24">
+      <c r="B171" s="23">
         <v>18.399999999999999</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -8269,26 +8384,26 @@
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J171" s="38"/>
-      <c r="K171" s="38"/>
-      <c r="L171" s="38"/>
-      <c r="M171" s="38"/>
-      <c r="N171" s="38"/>
+      <c r="I171" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
+      <c r="L171" s="37"/>
+      <c r="M171" s="37"/>
+      <c r="N171" s="37"/>
     </row>
     <row r="172" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="24" t="s">
+      <c r="A172" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B172" s="24">
+      <c r="B172" s="23">
         <v>18.5</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -8297,16 +8412,16 @@
       <c r="F172" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" s="38"/>
-      <c r="K172" s="38"/>
-      <c r="L172" s="38"/>
-      <c r="M172" s="38"/>
-      <c r="N172" s="38"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="37"/>
+      <c r="N172" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I172" xr:uid="{D96FCC80-E5B0-4C2E-B974-1E69D47162A4}"/>
@@ -8328,14 +8443,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D30 D52:D59 D69:D80 D82:D88 D90:D96 D104:D111 D113:D123 D125:D133 D135:D141 D143:D156 D168:D172">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Detect">
-      <formula>NOT(ISERROR(SEARCH("Detect",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Detect">
+      <formula>NOT(ISERROR(SEARCH("Detect",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D17)))</formula>
@@ -8345,37 +8460,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D102">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Protect">
+      <formula>NOT(ISERROR(SEARCH("Protect",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Respond">
+      <formula>NOT(ISERROR(SEARCH("Respond",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Detect">
+      <formula>NOT(ISERROR(SEARCH("Detect",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Protect">
-      <formula>NOT(ISERROR(SEARCH("Protect",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Respond">
-      <formula>NOT(ISERROR(SEARCH("Respond",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Detect">
-      <formula>NOT(ISERROR(SEARCH("Detect",D98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D166">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Protect">
+      <formula>NOT(ISERROR(SEARCH("Protect",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Respond">
+      <formula>NOT(ISERROR(SEARCH("Respond",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Detect">
+      <formula>NOT(ISERROR(SEARCH("Detect",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Protect">
-      <formula>NOT(ISERROR(SEARCH("Protect",D158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Respond">
-      <formula>NOT(ISERROR(SEARCH("Respond",D158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Detect">
-      <formula>NOT(ISERROR(SEARCH("Detect",D158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
